--- a/W9/drift_data_full.xlsx
+++ b/W9/drift_data_full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schir\Desktop\Code_Projects\GITHUB\Ultra-Wide-Band-M202\W9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EB02A1-B643-41DC-8294-AEED1DE3CE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86888261-C125-4325-8E44-B85C76429FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Time</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Pos Z</t>
+  </si>
+  <si>
+    <t>Az_drift</t>
   </si>
 </sst>
 </file>
@@ -2464,7 +2467,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ay_drift</c:v>
+                  <c:v>Az_drift</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17481,7 +17484,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ay_drift</c:v>
+                  <c:v>Az_drift</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -22658,8 +22661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -22679,7 +22682,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>

--- a/W9/drift_data_full.xlsx
+++ b/W9/drift_data_full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schir\Desktop\Code_Projects\GITHUB\Ultra-Wide-Band-M202\W9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86888261-C125-4325-8E44-B85C76429FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08053F3E-7B24-44FD-8CAE-70549F7EFB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22661,8 +22661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/W9/drift_data_full.xlsx
+++ b/W9/drift_data_full.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schir\Desktop\Code_Projects\GITHUB\Ultra-Wide-Band-M202\W9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08053F3E-7B24-44FD-8CAE-70549F7EFB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC614B4-595B-425E-AF8C-402E5E6FEDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -23,12 +36,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Time</t>
-  </si>
-  <si>
-    <t>Ax_drift</t>
-  </si>
-  <si>
-    <t>Ay_drift</t>
   </si>
   <si>
     <t>Velocity X</t>
@@ -49,7 +56,13 @@
     <t>Pos Z</t>
   </si>
   <si>
-    <t>Az_drift</t>
+    <t>Accel X</t>
+  </si>
+  <si>
+    <t>Accel Y</t>
+  </si>
+  <si>
+    <t>Accel Z</t>
   </si>
 </sst>
 </file>
@@ -139,11 +152,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Accel</a:t>
+              <a:t>Stationary Accel</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Drift vs Time</a:t>
+              <a:t> Reading vs Time (with offset)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -193,7 +206,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ax_drift</c:v>
+                  <c:v>Accel X</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1330,7 +1343,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ay_drift</c:v>
+                  <c:v>Accel Y</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2467,7 +2480,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Az_drift</c:v>
+                  <c:v>Accel Z</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3614,6 +3627,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3679,6 +3752,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Acceleration</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (M/S^2)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3825,11 +3958,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Velocity</a:t>
+              <a:t>Stationary Velocity</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Versus Time</a:t>
+              <a:t> Accumulation </a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -7300,6 +7433,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (M/S)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7365,6 +7553,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Velocity M/S</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7556,1145 +7799,8 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pos X</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$182</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="181"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>180</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$2:$H$182</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="181"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.03</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.04</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-5.3999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-7.0999999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.09</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.112</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.13600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.16300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.193</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.224</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.25700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.29099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.32700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.36499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.40500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.44800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.49199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.53800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.58499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.63400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.68500000000000005</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.73899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.79400000000000004</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.85099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.91100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.97299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-1.038</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1.1040000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-1.171</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-1.2410000000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-1.3120000000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-1.3839999999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-1.4590000000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-1.5369999999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-1.615</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-1.696</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-1.7789999999999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-1.863</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-1.9490000000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-2.036</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-2.1259999999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-2.2170000000000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-2.3090000000000002</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-2.403</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-2.4990000000000001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-2.5960000000000001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-2.6960000000000002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-2.798</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-2.9020000000000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-3.008</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-3.1160000000000001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-3.2250000000000001</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-3.3370000000000002</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-3.4510000000000001</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-3.5670000000000002</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-3.6840000000000002</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-3.8039999999999998</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-3.9249999999999998</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-4.048</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-4.173</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-4.2990000000000004</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-4.4279999999999999</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-4.5579999999999998</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-4.6900000000000004</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-4.8250000000000002</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-4.9610000000000003</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-5.0979999999999999</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-5.2370000000000001</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-5.3780000000000001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-5.5209999999999999</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-5.665</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-5.8120000000000003</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-5.9610000000000003</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-6.1109999999999998</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-6.2629999999999999</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-6.4169999999999998</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-6.5730000000000004</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-6.73</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-6.89</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-7.0529999999999999</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-7.218</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-7.3849999999999998</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-7.5549999999999997</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-7.726</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-7.9</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-8.077</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-8.2550000000000008</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-8.4359999999999999</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-8.6189999999999998</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-8.8049999999999997</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-8.9930000000000003</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-9.1820000000000004</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-9.3740000000000006</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-9.5679999999999996</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-9.7639999999999993</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-9.9610000000000003</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>-10.159000000000001</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>-10.36</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>-10.563000000000001</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-10.768000000000001</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-10.975</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>-11.183999999999999</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>-11.394</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-11.606</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-11.82</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-12.036</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-12.254</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>-12.474</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>-12.696</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-12.92</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>-13.146000000000001</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>-13.375999999999999</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>-13.606999999999999</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>-13.84</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-14.076000000000001</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>-14.315</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>-14.555</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>-14.798</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>-15.042</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>-15.288</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-15.536</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-15.787000000000001</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-16.038</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-16.29</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-16.544</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-16.800999999999998</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>-17.058</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>-17.318000000000001</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>-17.579000000000001</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>-17.841000000000001</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>-18.106000000000002</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>-18.372</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>-18.64</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>-18.91</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>-19.181000000000001</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>-19.454999999999998</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>-19.73</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>-20.006</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>-20.286000000000001</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>-20.567</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>-20.85</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>-21.135999999999999</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>-21.422999999999998</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>-21.712</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>-22.003</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>-22.295000000000002</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>-22.59</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>-22.885999999999999</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>-23.184000000000001</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>-23.484000000000002</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>-23.786000000000001</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>-24.09</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>-24.393999999999998</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>-24.701000000000001</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>-25.009</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>-25.32</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>-25.632999999999999</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>-25.946999999999999</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>-26.263999999999999</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>-26.582000000000001</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>-26.902000000000001</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>-27.224</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>-27.547000000000001</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>-27.873000000000001</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>-28.2</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>-28.529</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>-28.86</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>-29.193000000000001</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>-29.527999999999999</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>-29.864999999999998</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>-30.202999999999999</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>-30.542999999999999</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>-30.885000000000002</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>-31.228999999999999</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>-31.576000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4E3A-4D17-BF5D-AA47ABA3C89A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$I$1</c:f>
@@ -9829,1143 +8935,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pos Z</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$182</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="181"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>180</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$2:$J$182</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="181"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-3.4000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-4.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-6.4000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-8.2000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.104</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.159</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.19</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.222</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.25800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.29799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.34</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.38400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.43</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.47699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.52600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.57899999999999996</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.63600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.69499999999999995</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.75800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.82199999999999995</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.88700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.95299999999999996</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-1.0229999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-1.095</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-1.17</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-1.25</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1.3320000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-1.415</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-1.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-1.5880000000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-1.6779999999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-1.7729999999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-1.871</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-1.972</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-2.0750000000000002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-2.1819999999999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-2.294</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-2.41</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-2.5289999999999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-2.6520000000000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-2.7749999999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-2.9009999999999998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-3.032</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-3.165</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-3.3010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-3.4380000000000002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-3.577</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-3.72</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-3.8690000000000002</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-4.0209999999999999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-4.1749999999999998</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-4.3339999999999996</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-4.4969999999999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-4.6630000000000003</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-4.83</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-4.9989999999999997</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-5.17</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-5.3419999999999996</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-5.516</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-5.6909999999999998</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-5.8689999999999998</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-6.048</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-6.23</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-6.4119999999999999</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-6.5949999999999998</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-6.7809999999999997</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-6.968</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-7.1559999999999997</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-7.3449999999999998</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-7.5359999999999996</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-7.73</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-7.9290000000000003</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-8.1310000000000002</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-8.3360000000000003</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-8.5419999999999998</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-8.7490000000000006</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-8.9580000000000002</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-9.1679999999999993</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-9.3789999999999996</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-9.5939999999999994</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-9.8109999999999999</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-10.031000000000001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-10.252000000000001</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-10.473000000000001</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-10.694000000000001</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-10.919</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-11.146000000000001</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-11.372999999999999</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-11.601000000000001</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-11.833</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-12.066000000000001</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-12.303000000000001</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-12.542</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-12.784000000000001</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-13.03</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>-13.281000000000001</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>-13.532999999999999</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>-13.786</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-14.041</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-14.295999999999999</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>-14.555</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>-14.815</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-15.079000000000001</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-15.347</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-15.616</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-15.887</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>-16.16</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>-16.437999999999999</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-16.718</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>-17</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>-17.285</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>-17.57</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>-17.858000000000001</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-18.146999999999998</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>-18.440000000000001</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>-18.734999999999999</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>-19.033999999999999</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>-19.335999999999999</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>-19.64</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-19.946000000000002</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-20.254999999999999</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-20.565999999999999</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-20.88</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-21.195</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-21.513999999999999</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>-21.834</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>-22.157</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>-22.483000000000001</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>-22.812000000000001</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>-23.143000000000001</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>-23.478000000000002</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>-23.815999999999999</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>-24.155999999999999</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>-24.495999999999999</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>-24.837</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>-25.18</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>-25.526</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>-25.875</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>-26.225999999999999</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>-26.581</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>-26.936</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>-27.294</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>-27.657</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>-28.024999999999999</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>-28.396999999999998</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>-28.77</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>-29.145</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>-29.523</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>-29.904</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>-30.289000000000001</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>-30.681000000000001</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>-31.076000000000001</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>-31.472999999999999</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>-31.873000000000001</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>-32.274000000000001</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>-32.673000000000002</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>-33.073</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>-33.476999999999997</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>-33.883000000000003</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>-34.292000000000002</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>-34.701999999999998</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>-35.113999999999997</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>-35.529000000000003</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>-35.945999999999998</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>-36.366</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>-36.789000000000001</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>-37.213999999999999</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>-37.640999999999998</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>-38.070999999999998</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>-38.505000000000003</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>-38.939</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>-39.377000000000002</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>-39.819000000000003</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>-40.265000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4E3A-4D17-BF5D-AA47ABA3C89A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -10985,6 +8954,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -11050,6 +9079,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Relative</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Distance (M)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -13533,6 +11622,65 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -13598,6 +11746,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (M)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -16347,7 +14555,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ax_drift</c:v>
+                  <c:v>Accel X</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17484,7 +15692,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Az_drift</c:v>
+                  <c:v>Accel Z</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -22186,15 +20394,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>483870</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>152176</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>109816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>475130</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22222,9 +20430,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>562758</xdr:colOff>
+      <xdr:colOff>273424</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>82923</xdr:rowOff>
+      <xdr:rowOff>17929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
@@ -22661,8 +20869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="M22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y60" sqref="Y60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -22676,31 +20884,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
